--- a/data/trabalhe_com_seguranca.xlsx
+++ b/data/trabalhe_com_seguranca.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>Mantenha a atenção</t>
   </si>
@@ -299,9 +299,6 @@
     <t>Rotas de saída</t>
   </si>
   <si>
-    <t>Tenha o costume de identificar as rotas de saída em todos os ambientes.</t>
-  </si>
-  <si>
     <t>rotas-de-saida.jpg</t>
   </si>
   <si>
@@ -321,6 +318,225 @@
   </si>
   <si>
     <t>a-pressa-e-companheira-dos-acidentes.jpg</t>
+  </si>
+  <si>
+    <t>Limites de velocidade</t>
+  </si>
+  <si>
+    <t>Respeite os limites de velocidade dentro da empresa e nunca tome atalhos.</t>
+  </si>
+  <si>
+    <t>limites-de-velocidade.jpg</t>
+  </si>
+  <si>
+    <t>Cursos de prevenção</t>
+  </si>
+  <si>
+    <t>Participe de atividades e cursos de prevenção de acidentes sempre que a empresa os promover.</t>
+  </si>
+  <si>
+    <t>cursos-de-prevencao.jpg</t>
+  </si>
+  <si>
+    <t>Medidas de prevenção</t>
+  </si>
+  <si>
+    <t>Procure aplicar as medidas e dispositivos de prevenção de acidentes de trabalho.</t>
+  </si>
+  <si>
+    <t>medidas-de-prevencao.jpg</t>
+  </si>
+  <si>
+    <t>Mantenha uma postura adequada</t>
+  </si>
+  <si>
+    <t>Se trabalhar muitas horas sentado, mantenha uma postura adequada. Faça pequenas pausas em cada 2 horas.</t>
+  </si>
+  <si>
+    <t>mantenha-uma-postura-adequada.jpg</t>
+  </si>
+  <si>
+    <t>Pergunte sempre</t>
+  </si>
+  <si>
+    <t>Quando não souber ou tiver dúvida sobre algum serviço, pergunte ao seu chefe ou encarregado, para prevenir-se contra possíveis acidentes.</t>
+  </si>
+  <si>
+    <t>pergunte-sempre.jpg</t>
+  </si>
+  <si>
+    <t>Segurança de todos</t>
+  </si>
+  <si>
+    <t>Coopere com seus companheiros em benefício da segurança de todos e siga os conselhos de seu chefe ou encarregado ou líder.</t>
+  </si>
+  <si>
+    <t>seguranca-de-todos.jpg</t>
+  </si>
+  <si>
+    <t>Primeiros socorros</t>
+  </si>
+  <si>
+    <t>Saiba como fazer os primeiros socorros básicos, mas sempre consciente de que existem pessoas especializadas para tal situação.</t>
+  </si>
+  <si>
+    <t>primeiros-socorros.jpg</t>
+  </si>
+  <si>
+    <t>Se informe sobre as rotas de saídas de emergência em todos os ambientes.</t>
+  </si>
+  <si>
+    <t>Não fume</t>
+  </si>
+  <si>
+    <t>Não fume em locais proibidos, procure os locais destinados para tal.</t>
+  </si>
+  <si>
+    <t>nao-fume.jpg</t>
+  </si>
+  <si>
+    <t>Confira sua máquina ou equipamento de trabalho antes de iniciar suas atividades através do check list.</t>
+  </si>
+  <si>
+    <t>Faça checklist</t>
+  </si>
+  <si>
+    <t>faca-checklist.jpg</t>
+  </si>
+  <si>
+    <t>Seja cuidadoso</t>
+  </si>
+  <si>
+    <t>Antes de se sentar, verifique a firmeza e a posição das cadeiras.</t>
+  </si>
+  <si>
+    <t>seja-cuidadoso.jpg</t>
+  </si>
+  <si>
+    <t>Seja responsável</t>
+  </si>
+  <si>
+    <t>Não deixe objetos caídos no chão, alguém pode se machucar, seja responsável.</t>
+  </si>
+  <si>
+    <t>seja-responsavel.jpg</t>
+  </si>
+  <si>
+    <t>Invista em Treinamento</t>
+  </si>
+  <si>
+    <t>O treinamento é a melhor maneira de conheçer a função que será exercida, garantindo que estará preparado para executar o trabalho, sem oferecer riscos ou prejuízos à equipe e ao empregador.</t>
+  </si>
+  <si>
+    <t>invista-em-treinamento.jpg</t>
+  </si>
+  <si>
+    <t>Condições de trabalho</t>
+  </si>
+  <si>
+    <t>O gestor deve comunicar o colaborador sobre os riscos relativos à função e ao espaço em que ele irá operar, através de avisos em murais, e sinalizações nos equipamentos e em todo o ambiente.</t>
+  </si>
+  <si>
+    <t>condicoes-de-trabalho.jpg</t>
+  </si>
+  <si>
+    <t>Evite executar atividades avulsas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazer coisas as quais você não está habituado pode ser um problema, considerando sua inexperiência no assunto e o consequente improviso na ação. </t>
+  </si>
+  <si>
+    <t>evite-executar-atividades-avulsas.jpg</t>
+  </si>
+  <si>
+    <t>Não obstrua acessos</t>
+  </si>
+  <si>
+    <t>Não obstrua o acesso aos equipamentos de emergências (Macas, Extintores, etc.)</t>
+  </si>
+  <si>
+    <t>nao-obstrua-acessos.jpg</t>
+  </si>
+  <si>
+    <t>Siga os procedimentos</t>
+  </si>
+  <si>
+    <t>Sempre siga os procedimentos de segurança com atenção aos detalhes.</t>
+  </si>
+  <si>
+    <t>siga-os-procedimentos.jpg</t>
+  </si>
+  <si>
+    <t>Seguraça no trabalho</t>
+  </si>
+  <si>
+    <t>Sua segurança é sua responsabilidade.</t>
+  </si>
+  <si>
+    <t>seguraca-no-trabalho.jpg</t>
+  </si>
+  <si>
+    <t>Obedeça às sinalizações de segurança, etiquetas, tickets e etc.</t>
+  </si>
+  <si>
+    <t>Sinalizações de segurança</t>
+  </si>
+  <si>
+    <t>sinalizacoes-de-seguranca.jpg</t>
+  </si>
+  <si>
+    <t>Evite repetir o erro</t>
+  </si>
+  <si>
+    <t>Todo o acidente tem uma causa que é preciso ser pesquisada, para evitar a sua repetição.</t>
+  </si>
+  <si>
+    <t>evite-repetir-o-erro.jpg</t>
+  </si>
+  <si>
+    <t>Conheça os riscos</t>
+  </si>
+  <si>
+    <t>Conheça os riscos das atividades que desenvolve e quais as formas de proteção para reduzir esses riscos.</t>
+  </si>
+  <si>
+    <t>conheca-os-riscos.jpg</t>
+  </si>
+  <si>
+    <t>Não improvise</t>
+  </si>
+  <si>
+    <t>Siga rigorosamente os procedimentos operacionais, não improvise e na dúvida PARE.</t>
+  </si>
+  <si>
+    <t>nao-improvise.jpg</t>
+  </si>
+  <si>
+    <t>A CIPA cuida não só da saúde física</t>
+  </si>
+  <si>
+    <t>Cuida também da saúde mental e bem-estar, fazendo campanhas de conscientização, feiras de saúde, palestras, etc. Conheça um pouco mais sobre as ações realizadas no seu local de trabalho.</t>
+  </si>
+  <si>
+    <t>a-cipa-cuida-nao-so-da-saude-fisica.jpg</t>
+  </si>
+  <si>
+    <t>Tenha um boa noite de sono</t>
+  </si>
+  <si>
+    <t>Acidentes podem ocorrer por fadiga, por não ter dormido o suficiente ou quando se trabalha por turnos, em especial se o trabalho incluir lidar com máquinas perigosas.</t>
+  </si>
+  <si>
+    <t>tenha-um-boa-noite-de-sono.jpg</t>
+  </si>
+  <si>
+    <t>Alimente-se bem</t>
+  </si>
+  <si>
+    <t>A falta de alimentação adequada que pode provocar desmaios, podendo causar um acidente de trabalho, sendo assim, alimente-se bem.</t>
+  </si>
+  <si>
+    <t>alimente-se-bem.jpg</t>
   </si>
 </sst>
 </file>
@@ -406,8 +622,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:C33" tableType="xml" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:C57" tableType="xml" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C57"/>
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="title" name="Titulo">
       <xmlColumnPr mapId="3" xpath="/root/item/title" xmlDataType="string"/>
@@ -686,16 +902,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="185.140625" customWidth="1"/>
     <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1034,32 +1250,296 @@
         <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
